--- a/Task list.xlsx
+++ b/Task list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rickfontenot/Dropbox/SMU/GitHub/SMU/DS6306/DS6306_Study1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BF199F-7FF5-FD46-90C3-273529A64A06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F085D91-8425-5444-A65F-87D0B27F9E7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="21060" windowHeight="14280" xr2:uid="{6485FE02-0D44-F346-97FE-291DF1841585}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="21220" windowHeight="14400" xr2:uid="{6485FE02-0D44-F346-97FE-291DF1841585}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,15 +71,9 @@
     <t>Jason</t>
   </si>
   <si>
-    <t>asking TA for guidance first</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>Should we omit NA or replace?</t>
-  </si>
-  <si>
     <t>Compute the median alcohol content and international bitterness unit for each state. Plot a bar chart to compare.</t>
   </si>
   <si>
@@ -104,9 +98,6 @@
     <t>Mostly complete</t>
   </si>
   <si>
-    <t>Add Titles/labels, make axis more readable, order by ranking instead of alphabetical??</t>
-  </si>
-  <si>
     <t>max calculated but state not listed</t>
   </si>
   <si>
@@ -165,6 +156,15 @@
   </si>
   <si>
     <t>Optimal ABV/IBU by beer type (where do most beers land on scatter) Brewery location vs. Consumption</t>
+  </si>
+  <si>
+    <t>Add Titles/labels, make axis more readable, order by ranking instead of alphabetical?? Show as map too?</t>
+  </si>
+  <si>
+    <t>Should we omit NA or replace?, histograms before and after to study why median shifted significantly in some States</t>
+  </si>
+  <si>
+    <t>imputed values, but need to study more</t>
   </si>
 </sst>
 </file>
@@ -196,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +206,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -238,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -257,6 +263,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -575,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A638C4-CE0C-5C46-972A-425436DB50BD}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -584,7 +596,7 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="50.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="3"/>
   </cols>
@@ -599,28 +611,28 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>23</v>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -633,25 +645,25 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="51" x14ac:dyDescent="0.2">
@@ -659,16 +671,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -676,16 +688,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -693,16 +705,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -710,16 +722,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -727,13 +739,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="68" x14ac:dyDescent="0.2">
@@ -741,10 +753,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -768,12 +780,12 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -782,12 +794,12 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -796,7 +808,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -807,10 +819,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -818,7 +830,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -826,7 +838,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -834,7 +846,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -842,10 +854,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -853,7 +865,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.2">
@@ -861,10 +873,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -872,7 +884,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -880,7 +892,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
